--- a/MM.xlsx
+++ b/MM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D62E77F1-57DF-4726-8FE1-F3C248205EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F75671-4AA9-4E25-96AE-EF641A4B1303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="150" xr2:uid="{35B95E89-714A-434A-9ACD-9FFCC2AC572A}"/>
   </bookViews>
@@ -16,20 +16,11 @@
     <sheet name="typeall" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="80000"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>010 0186 7318</t>
   </si>
@@ -166,9 +157,6 @@
     <t>011 1845 9886</t>
   </si>
   <si>
-    <t>011 1845 9878</t>
-  </si>
-  <si>
     <t>فيصل 2 8 اقساط</t>
   </si>
   <si>
@@ -178,18 +166,12 @@
     <t>010 0136 9508</t>
   </si>
   <si>
-    <t>010 2850 5595</t>
-  </si>
-  <si>
     <t>سفيان رامى صلاح عبدالحميد الطاهر</t>
   </si>
   <si>
     <t>010 0412 3667</t>
   </si>
   <si>
-    <t>010 0906 6656</t>
-  </si>
-  <si>
     <t>مزغونة والشوبك 3 اقساط</t>
   </si>
   <si>
@@ -199,9 +181,6 @@
     <t>011 0078 6100</t>
   </si>
   <si>
-    <t>012 2466 0561</t>
-  </si>
-  <si>
     <t>عمر اسلام محمد عزالدين بدوى</t>
   </si>
   <si>
@@ -292,7 +271,7 @@
     <t>اسم المدرس</t>
   </si>
   <si>
-    <t>عبد الرحمن سعيد</t>
+    <t>MR. Abdulrahman Saeed</t>
   </si>
 </sst>
 </file>
@@ -373,19 +352,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -705,7 +684,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="206" zoomScaleSheetLayoutView="192" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -719,22 +698,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,7 +753,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -794,7 +773,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -814,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -834,7 +813,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -854,7 +833,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -874,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,7 +873,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -914,7 +893,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -934,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -951,7 +930,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -971,7 +950,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1008,7 +987,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,16 +998,16 @@
         <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,19 +1015,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1056,19 +1035,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,19 +1055,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1105,10 +1084,10 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,19 +1095,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1136,19 +1115,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,19 +1135,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1176,19 +1155,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1196,19 +1175,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,19 +1195,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,19 +1215,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
